--- a/result/with_base/124/arousal/s25_5.xlsx
+++ b/result/with_base/124/arousal/s25_5.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7125000059604645</v>
+        <v>0.7840401828289032</v>
       </c>
       <c r="C2" t="n">
-        <v>41752.94921875</v>
+        <v>11285.61865234375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7336363684047352</v>
+        <v>0.7871586119427401</v>
       </c>
       <c r="E2" t="n">
-        <v>41753.57990056818</v>
+        <v>11285.72386259191</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.875</v>
+        <v>0.8381696343421936</v>
       </c>
       <c r="C3" t="n">
-        <v>40988.35546875</v>
+        <v>10986.20068359375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8348863504149697</v>
+        <v>0.8519564060603871</v>
       </c>
       <c r="E3" t="n">
-        <v>40988.26491477273</v>
+        <v>10986.4130859375</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8675000071525574</v>
+        <v>0.86328125</v>
       </c>
       <c r="C4" t="n">
-        <v>40228.73828125</v>
+        <v>10691.0810546875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8665909171104431</v>
+        <v>0.8792673314318937</v>
       </c>
       <c r="E4" t="n">
-        <v>40230.07670454546</v>
+        <v>10690.87189797794</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8975000083446503</v>
+        <v>0.8889508843421936</v>
       </c>
       <c r="C5" t="n">
-        <v>39478.4453125</v>
+        <v>10400.501953125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9039772694761102</v>
+        <v>0.9112394942956812</v>
       </c>
       <c r="E5" t="n">
-        <v>39477.78125</v>
+        <v>10400.39912683824</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9050000011920929</v>
+        <v>0.9012276828289032</v>
       </c>
       <c r="C6" t="n">
-        <v>38735.724609375</v>
+        <v>10117.52294921875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9271590872244402</v>
+        <v>0.918395484195036</v>
       </c>
       <c r="E6" t="n">
-        <v>38735.56924715909</v>
+        <v>10116.99908088235</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8975000083446503</v>
+        <v>0.8967633843421936</v>
       </c>
       <c r="C7" t="n">
-        <v>38005.38671875</v>
+        <v>9839.77001953125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.932727271860296</v>
+        <v>0.9039522058823529</v>
       </c>
       <c r="E7" t="n">
-        <v>38004.87784090909</v>
+        <v>9839.91641773897</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9025000035762787</v>
+        <v>0.9051339328289032</v>
       </c>
       <c r="C8" t="n">
-        <v>37286.744140625</v>
+        <v>9568.265625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9369318214329806</v>
+        <v>0.9210871843730702</v>
       </c>
       <c r="E8" t="n">
-        <v>37284.81107954546</v>
+        <v>9567.898092830883</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9199999868869781</v>
+        <v>0.93359375</v>
       </c>
       <c r="C9" t="n">
-        <v>36575.75</v>
+        <v>9302.59814453125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.951931817965074</v>
+        <v>0.9407825645278481</v>
       </c>
       <c r="E9" t="n">
-        <v>36575.25248579546</v>
+        <v>9302.53067555147</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C10" t="n">
-        <v>35878.458984375</v>
+        <v>9043.62646484375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9554545391689647</v>
+        <v>0.9484637590015635</v>
       </c>
       <c r="E10" t="n">
-        <v>35878.01917613636</v>
+        <v>9043.476907169117</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.8917410671710968</v>
       </c>
       <c r="C11" t="n">
-        <v>35192.22265625</v>
+        <v>8791.60888671875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9592045437205922</v>
+        <v>0.9310661764705882</v>
       </c>
       <c r="E11" t="n">
-        <v>35192.30433238636</v>
+        <v>8790.976332720587</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9174107015132904</v>
       </c>
       <c r="C12" t="n">
-        <v>34518.849609375</v>
+        <v>8544.759765625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9613636352799155</v>
+        <v>0.9468881312538596</v>
       </c>
       <c r="E12" t="n">
-        <v>34518.02379261364</v>
+        <v>8544.124942555147</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9469866156578064</v>
       </c>
       <c r="C13" t="n">
-        <v>33855.505859375</v>
+        <v>8303.6796875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9677272709933195</v>
+        <v>0.9633009468807894</v>
       </c>
       <c r="E13" t="n">
-        <v>33855.16619318182</v>
+        <v>8303.324965533087</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.8962053656578064</v>
       </c>
       <c r="C14" t="n">
-        <v>33204.662109375</v>
+        <v>8069.51513671875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9653409123420715</v>
+        <v>0.9472163880572599</v>
       </c>
       <c r="E14" t="n">
-        <v>33203.87642045454</v>
+        <v>8068.926298253677</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9592633843421936</v>
       </c>
       <c r="C15" t="n">
-        <v>32565.251953125</v>
+        <v>7840.33642578125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.966704552823847</v>
+        <v>0.9646139705882353</v>
       </c>
       <c r="E15" t="n">
-        <v>32564.03959517046</v>
+        <v>7840.07186351103</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C16" t="n">
-        <v>31936.60546875</v>
+        <v>7617.5810546875</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9701136513189836</v>
+        <v>0.9648765746284934</v>
       </c>
       <c r="E16" t="n">
-        <v>31935.48100142046</v>
+        <v>7617.20751953125</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.8911830484867096</v>
       </c>
       <c r="C17" t="n">
-        <v>31318.7890625</v>
+        <v>7400.710205078125</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9789772846482017</v>
+        <v>0.945181197979871</v>
       </c>
       <c r="E17" t="n">
-        <v>31317.984375</v>
+        <v>7400.238022748162</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C18" t="n">
-        <v>30711.8330078125</v>
+        <v>7188.740478515625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9801136472008445</v>
+        <v>0.9594275215092827</v>
       </c>
       <c r="E18" t="n">
-        <v>30711.49893465909</v>
+        <v>7188.547995174632</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9263392984867096</v>
       </c>
       <c r="C19" t="n">
-        <v>30116.6767578125</v>
+        <v>6983.007568359375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9818181991577148</v>
+        <v>0.9652048314318937</v>
       </c>
       <c r="E19" t="n">
-        <v>30115.88014914773</v>
+        <v>6982.550494025735</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C20" t="n">
-        <v>29532.212890625</v>
+        <v>6782.221435546875</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9823863723061301</v>
+        <v>0.9681591391563416</v>
       </c>
       <c r="E20" t="n">
-        <v>29531.02645596591</v>
+        <v>6781.830767463235</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.94140625</v>
       </c>
       <c r="C21" t="n">
-        <v>28957.470703125</v>
+        <v>6586.7353515625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9884091019630432</v>
+        <v>0.9629726900773889</v>
       </c>
       <c r="E21" t="n">
-        <v>28956.59339488636</v>
+        <v>6586.360983455882</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9592633843421936</v>
       </c>
       <c r="C22" t="n">
-        <v>28393.4296875</v>
+        <v>6396.156982421875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9894318255511197</v>
+        <v>0.972360817825093</v>
       </c>
       <c r="E22" t="n">
-        <v>28392.58682528409</v>
+        <v>6395.910184972427</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.929999977350235</v>
+        <v>0.9263392984867096</v>
       </c>
       <c r="C23" t="n">
-        <v>27840.326171875</v>
+        <v>6211.045166015625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9804545586759393</v>
+        <v>0.9717043077244478</v>
       </c>
       <c r="E23" t="n">
-        <v>27839.08700284091</v>
+        <v>6210.515883501838</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C24" t="n">
-        <v>27296.447265625</v>
+        <v>6030.39501953125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9873863729563627</v>
+        <v>0.9754464275696698</v>
       </c>
       <c r="E24" t="n">
-        <v>27295.419921875</v>
+        <v>6029.962459788603</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C25" t="n">
-        <v>26762.484375</v>
+        <v>5854.557373046875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9897727370262146</v>
+        <v>0.9811580882352942</v>
       </c>
       <c r="E25" t="n">
-        <v>26761.72709517046</v>
+        <v>5854.186465992647</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9469866156578064</v>
       </c>
       <c r="C26" t="n">
-        <v>26239.259765625</v>
+        <v>5683.597412109375</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9829545617103577</v>
+        <v>0.9746586119427401</v>
       </c>
       <c r="E26" t="n">
-        <v>26238.02645596591</v>
+        <v>5683.14444508272</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9263392984867096</v>
       </c>
       <c r="C27" t="n">
-        <v>25723.9638671875</v>
+        <v>5517.1376953125</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9900000095367432</v>
+        <v>0.9572610294117647</v>
       </c>
       <c r="E27" t="n">
-        <v>25723.65589488636</v>
+        <v>5516.696346507353</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9347098171710968</v>
       </c>
       <c r="C28" t="n">
-        <v>25219.3642578125</v>
+        <v>5354.886474609375</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9893181920051575</v>
+        <v>0.9749868687461404</v>
       </c>
       <c r="E28" t="n">
-        <v>25218.94921875</v>
+        <v>5354.439252068015</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9099999964237213</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C29" t="n">
-        <v>24725.25</v>
+        <v>5197.0947265625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9717045480554755</v>
+        <v>0.9809611334520227</v>
       </c>
       <c r="E29" t="n">
-        <v>24723.74058948864</v>
+        <v>5196.680032169118</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9347098171710968</v>
       </c>
       <c r="C30" t="n">
-        <v>24237.966796875</v>
+        <v>5043.469482421875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.990340915593234</v>
+        <v>0.9778098744504592</v>
       </c>
       <c r="E30" t="n">
-        <v>24237.21324573864</v>
+        <v>5043.147719439338</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C31" t="n">
-        <v>23760.4208984375</v>
+        <v>4894.075927734375</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9944318207827482</v>
+        <v>0.9736738450386945</v>
       </c>
       <c r="E31" t="n">
-        <v>23759.837890625</v>
+        <v>4893.760598575368</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9375</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C32" t="n">
-        <v>23292.0126953125</v>
+        <v>4748.5048828125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9931818246841431</v>
+        <v>0.9857536764705882</v>
       </c>
       <c r="E32" t="n">
-        <v>23291.32652698864</v>
+        <v>4748.269502527573</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C33" t="n">
-        <v>22832.052734375</v>
+        <v>4607.130615234375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9944318207827482</v>
+        <v>0.976825104040258</v>
       </c>
       <c r="E33" t="n">
-        <v>22831.45134943182</v>
+        <v>4606.806583180147</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C34" t="n">
-        <v>22380.7646484375</v>
+        <v>4469.374755859375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9944318207827482</v>
+        <v>0.9824054626857534</v>
       </c>
       <c r="E34" t="n">
-        <v>22380.09037642046</v>
+        <v>4469.13126148897</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C35" t="n">
-        <v>21938.2041015625</v>
+        <v>4335.413330078125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9917045506564054</v>
+        <v>0.9850315136068007</v>
       </c>
       <c r="E35" t="n">
-        <v>21937.16903409091</v>
+        <v>4335.179026884191</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9553571343421936</v>
       </c>
       <c r="C36" t="n">
-        <v>21503.4541015625</v>
+        <v>4205.14501953125</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9906818270683289</v>
+        <v>0.9767594547832713</v>
       </c>
       <c r="E36" t="n">
-        <v>21502.42808948864</v>
+        <v>4204.928567325368</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9469866156578064</v>
       </c>
       <c r="C37" t="n">
-        <v>21076.076171875</v>
+        <v>4078.468383789062</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9944318207827482</v>
+        <v>0.9854254196671879</v>
       </c>
       <c r="E37" t="n">
-        <v>21075.73881392046</v>
+        <v>4078.183220358456</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C38" t="n">
-        <v>20657.3505859375</v>
+        <v>3955.06591796875</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9870010509210474</v>
       </c>
       <c r="E38" t="n">
-        <v>20657.02379261364</v>
+        <v>3954.896886488971</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C39" t="n">
-        <v>20246.447265625</v>
+        <v>3835.259643554688</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9945454597473145</v>
+        <v>0.9829306707662695</v>
       </c>
       <c r="E39" t="n">
-        <v>20246.10102982954</v>
+        <v>3835.052001953125</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9375</v>
       </c>
       <c r="C40" t="n">
-        <v>19843.5654296875</v>
+        <v>3718.684326171875</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9884091019630432</v>
+        <v>0.9783350825309753</v>
       </c>
       <c r="E40" t="n">
-        <v>19842.91157670454</v>
+        <v>3718.499439912684</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9084821343421936</v>
       </c>
       <c r="C41" t="n">
-        <v>19447.2099609375</v>
+        <v>3605.536254882812</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9945454597473145</v>
+        <v>0.9736738450386945</v>
       </c>
       <c r="E41" t="n">
-        <v>19447.05433238636</v>
+        <v>3605.172478170956</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C42" t="n">
-        <v>19058.890625</v>
+        <v>3495.094116210938</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9790572489009184</v>
       </c>
       <c r="E42" t="n">
-        <v>19058.62855113636</v>
+        <v>3494.915498621323</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C43" t="n">
-        <v>18677.7548828125</v>
+        <v>3387.898803710938</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9956818222999573</v>
+        <v>0.9787289920975181</v>
       </c>
       <c r="E43" t="n">
-        <v>18677.48703835227</v>
+        <v>3387.749339384191</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9715401828289032</v>
       </c>
       <c r="C44" t="n">
-        <v>18303.92578125</v>
+        <v>3283.711791992188</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9926136406985197</v>
+        <v>0.9866071413545048</v>
       </c>
       <c r="E44" t="n">
-        <v>18303.49112215909</v>
+        <v>3283.535630170037</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C45" t="n">
-        <v>17936.71875</v>
+        <v>3182.400512695312</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9862132352941176</v>
       </c>
       <c r="E45" t="n">
-        <v>17936.43536931818</v>
+        <v>3182.240306181066</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C46" t="n">
-        <v>17576.3642578125</v>
+        <v>3083.940673828125</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9781381312538596</v>
       </c>
       <c r="E46" t="n">
-        <v>17576.26225142046</v>
+        <v>3083.802389705882</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9676339328289032</v>
       </c>
       <c r="C47" t="n">
-        <v>17223.2724609375</v>
+        <v>2988.185546875</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9767594547832713</v>
       </c>
       <c r="E47" t="n">
-        <v>17222.85600142046</v>
+        <v>2988.071719898897</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C48" t="n">
-        <v>16876.486328125</v>
+        <v>2895.186157226562</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9925000071525574</v>
+        <v>0.9814863450386945</v>
       </c>
       <c r="E48" t="n">
-        <v>16876.07794744318</v>
+        <v>2895.026999080882</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C49" t="n">
-        <v>16536.0556640625</v>
+        <v>2804.777709960938</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9961363673210144</v>
+        <v>0.9692752115866717</v>
       </c>
       <c r="E49" t="n">
-        <v>16535.79012784091</v>
+        <v>2804.655991498162</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C50" t="n">
-        <v>16202.3212890625</v>
+        <v>2716.939453125</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9925000071525574</v>
+        <v>0.9675682783126831</v>
       </c>
       <c r="E50" t="n">
-        <v>16201.93146306818</v>
+        <v>2716.816262637868</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,894 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C51" t="n">
-        <v>15875.0595703125</v>
+        <v>2631.598510742188</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9909090995788574</v>
+        <v>0.9620535724303302</v>
       </c>
       <c r="E51" t="n">
-        <v>15874.31685014205</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9274999797344208</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15553.58203125</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9885227300904014</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15552.85893110795</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15237.80712890625</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15237.39586292614</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14928.37841796875</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9912500056353483</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14927.95756392045</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14624.73681640625</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14624.29012784091</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9199999868869781</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14327.16064453125</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9869318279353055</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14326.46102627841</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C57" t="n">
-        <v>14034.4697265625</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E57" t="n">
-        <v>14034.17080965909</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13747.90380859375</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9945454597473145</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13747.45232599432</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13466.4541015625</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13466.13520951705</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13190.4501953125</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13190.16725852273</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12919.55859375</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9965909123420715</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12919.42018821023</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9274999797344208</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12654.46044921875</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9837500127879056</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12653.87144886364</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9324999749660492</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12393.82177734375</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9915909171104431</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12393.27725497159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12137.93798828125</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9935227307406339</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12137.6689453125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11887.20458984375</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11886.92613636364</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11641.33154296875</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9912500056353483</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11641.01713423295</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11400.2080078125</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9917045506564054</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11399.74698153409</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11163.408203125</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11163.13796164773</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10931.14111328125</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10930.96937144886</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10703.58642578125</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9893181920051575</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10703.34517045455</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9550000131130219</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10480.36865234375</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10480.03071732955</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10261.40771484375</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9936363697052002</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10261.041015625</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9225000143051147</v>
-      </c>
-      <c r="C73" t="n">
-        <v>10046.72509765625</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9907954606142911</v>
-      </c>
-      <c r="E73" t="n">
-        <v>10046.24245383523</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9835.904296875</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9835.5498046875</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9629.1328125</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9628.925071022728</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9426.61328125</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.993977275761691</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9426.291725852272</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.925000011920929</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9227.962890625</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9943181872367859</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9227.57315340909</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C78" t="n">
-        <v>9033.03662109375</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9948863658038053</v>
-      </c>
-      <c r="E78" t="n">
-        <v>9032.696555397728</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8841.76318359375</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9935227307406339</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8841.597123579546</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8654.5185546875</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9925000071525574</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8654.21475497159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8470.54736328125</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9897727370262146</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8470.479847301136</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4032258064516129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4677419354838709</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8548387096774194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.01123595505617977</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8548387096774194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.01123595505617977</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8870967741935484</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01685393258426966</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8870967741935484</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.01685393258426966</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9193548387096774</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.02808988764044944</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9193548387096774</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.02808988764044944</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9838709677419355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.06179775280898876</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9838709677419355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.06179775280898876</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6797752808988764</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6966292134831461</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.702247191011236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7247191011235955</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7528089887640449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7640449438202247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9382022471910112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.01612903225806452</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9382022471910112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.01612903225806452</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9719101123595506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.08064516129032258</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9719101123595506</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.08064516129032258</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9831460674157303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.1129032258064516</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9831460674157303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.1129032258064516</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9887640449438202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.1451612903225807</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9887640449438202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>0.1451612903225807</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9962848858281986</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
+        <v>2631.495720358456</v>
       </c>
     </row>
   </sheetData>
